--- a/files/spp_biogeo_data.xlsx
+++ b/files/spp_biogeo_data.xlsx
@@ -11,7 +11,6 @@
     <sheet name="spp_biogeo_macro" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="spp_biogeo_micro" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="spp_biogeo_micro_old" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="363">
   <si>
     <t xml:space="preserve">8 (A B C D E F G H)</t>
   </si>
@@ -1112,12 +1111,6 @@
   </si>
   <si>
     <t xml:space="preserve">ABCDEFH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code</t>
   </si>
 </sst>
 </file>
@@ -1262,7 +1255,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1353,10 +1346,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -7153,7 +7142,7 @@
   </sheetPr>
   <dimension ref="A1:E284"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A242" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A259" activeCellId="0" sqref="A259"/>
     </sheetView>
   </sheetViews>
@@ -11405,2287 +11394,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B282"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A271" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A283" activeCellId="0" sqref="A283"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="16.84"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
-        <v>363</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B98" s="11" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B99" s="11" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B115" s="9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B117" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B121" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="B122" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="B123" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B125" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B126" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B127" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B129" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B130" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B131" s="9" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="B133" s="9" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B134" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B135" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="B136" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B137" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B138" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B139" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B141" s="9" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="B143" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B144" s="9" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B145" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B147" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="B148" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="B149" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="B151" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B152" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B153" s="11" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="B154" s="11" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="B155" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="B156" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="B157" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="B158" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="B159" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="B160" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B161" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="B162" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="B163" s="9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B164" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B165" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="B166" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="B167" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B168" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="B169" s="7" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="B170" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="B171" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="B172" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="B173" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="B174" s="9" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="B175" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="B176" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="B177" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="B178" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="B179" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="B180" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="B181" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="B182" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="B183" s="9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="B184" s="9" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="B185" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="B186" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="B187" s="9" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="B188" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="B189" s="7" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="B190" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="B191" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="B192" s="9" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="B193" s="9" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="B194" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="B195" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="B196" s="9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="B197" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="B198" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="B199" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="B200" s="9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="B201" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B202" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="B203" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B204" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B205" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="B206" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="B207" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="B208" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B209" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="B210" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="B211" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="B212" s="9" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="B213" s="9" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="B214" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="B215" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="B216" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="B217" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="B218" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="B219" s="9" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="B220" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="B221" s="9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="B222" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B223" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="B224" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="B225" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="B226" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="B227" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="B228" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="B229" s="9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="B230" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="B231" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="B232" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="B233" s="9" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="B234" s="9" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="B235" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="B236" s="9" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="B237" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="B238" s="9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="B239" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="B240" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="B241" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="B242" s="9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="B243" s="9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="B244" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="B245" s="9" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="B246" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="B247" s="9" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="B248" s="9" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="B249" s="9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="B250" s="15" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="B251" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="B252" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="B253" s="9" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="B254" s="9" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="B255" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="B256" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="B257" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="B258" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B259" s="15" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="B260" s="9" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="B261" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="B262" s="9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="B263" s="9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="B264" s="9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="B265" s="9" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="B266" s="9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="B267" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="B268" s="9" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="B269" s="9" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="B270" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="B271" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="B272" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="B273" s="9" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="B274" s="9" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="B275" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="B276" s="7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="B277" s="9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="B278" s="9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="B279" s="9" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="B280" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="B281" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="B282" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>